--- a/biology/Médecine/Paul_Mainguy/Paul_Mainguy.xlsx
+++ b/biology/Médecine/Paul_Mainguy/Paul_Mainguy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Paul Mainguy, né le 31 août 1908 à Bourg-la-Reine (Seine, aujourd'hui Hauts-de-Seine) et mort le 22 novembre 1997 dans la même ville, est un médecin et homme politique français. Il fut député du département de la Seine et maire de Bourg-la-Reine.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Mainguy est le petit-fils, par sa mère, du docteur et homme politique Félix Francoz.
 Ancien externe des Hôpitaux de Paris, électroradiologiste, il est élu, maire de Bourg-la-Reine de 1947 à 1953, député le 30 novembre 1958 jusqu'au 9 octobre 1962 sous l'étiquette Union pour la nouvelle République (UNR) pour la 53e circonscription de la Seine, élection contestée par Émile Frouard de Montrouge qui finira par se désister devant le Conseil constitutionnel (décision 58-54 du 5 mai 1959). C'est au cours de cette législature qu'il interviendra en sa qualité de rapporteur de la Commission des Affaires culturelles sur l'idée favorable au projet de loi relatif à la restauration des grands monuments historiques et particulièrement pour la cathédrale de Reims.
@@ -547,7 +561,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Notes sur l'histoire de Bourg-la-Reine[réf. nécessaire].
 Des effets thérapeutiques de l'arc à grande puissance : travail du service d'électro-radiologie de l'Hôpital Laënnec, Paris, M. Vigné, 1932, 88 p. (thèse de médecine, Paris, 1932).
